--- a/CU ROM table.xlsx
+++ b/CU ROM table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perux\Desktop\RSA_empty\FPGA_RSA_UHF_RFID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Hayan\Desktop\FPGA_RSA_UHF_RFID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587D64AC-9102-4447-BEAD-F9941B797EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8E781A-FCBF-4129-8127-DF254BB675BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{758E4830-CE2D-41E9-92CA-AACD11DE0943}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{758E4830-CE2D-41E9-92CA-AACD11DE0943}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <r>
       <t>S</t>
@@ -247,14 +247,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,167 +583,147 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83205942-F741-4287-8284-88BD26327592}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="C4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
@@ -739,5 +731,8 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D4:I6 D7:H7" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>